--- a/Discharge/Station2_2021-10-20_.xlsx
+++ b/Discharge/Station2_2021-10-20_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DB2D96-106A-43BA-8339-D076EE7E2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D2DB2D96-106A-43BA-8339-D076EE7E2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C602AD64-5707-4677-A8B0-2F3DEB663F3B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09030A7B-D766-4609-878F-AA1442BD7759}"/>
+    <workbookView xWindow="7170" yWindow="340" windowWidth="10390" windowHeight="9730" xr2:uid="{09030A7B-D766-4609-878F-AA1442BD7759}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Station</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -110,9 +116,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -431,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DD880-E136-4D7B-83EC-BDA7046FB7BA}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,41 +447,41 @@
     <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44489</v>
       </c>
       <c r="C3">
@@ -489,11 +494,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44489</v>
       </c>
       <c r="C4">
@@ -506,11 +511,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44489</v>
       </c>
       <c r="C5">
@@ -523,11 +528,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44489</v>
       </c>
       <c r="C6">
@@ -540,11 +545,11 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>44489</v>
       </c>
       <c r="C7">
@@ -557,25 +562,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1">
         <v>55</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -594,15 +599,27 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12">
@@ -613,8 +630,24 @@
         <f>SUM(E12:E24)</f>
         <v>7.3900000000000007E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f>(D12-0)*B12/100</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>SUM(G12:G21)</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J12">
+        <f>H12</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K12">
+        <f>F12</f>
+        <v>7.3900000000000007E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -632,8 +665,12 @@
         <f>(D13-D12)*(B13/100)*C13</f>
         <v>2.3800000000000007E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f>(D13-D12)*B13/100</f>
+        <v>1.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -651,8 +688,12 @@
         <f t="shared" ref="E14:E17" si="1">(D14-D13)*(B14/100)*C14</f>
         <v>2.699999999999999E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" ref="G14:G25" si="2">(D14-D13)*B14/100</f>
+        <v>1.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>30</v>
       </c>
@@ -670,8 +711,12 @@
         <f t="shared" si="1"/>
         <v>5.0999999999999993E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>40</v>
       </c>
@@ -689,8 +734,12 @@
         <f t="shared" si="1"/>
         <v>1.8000000000000007E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>50</v>
       </c>
@@ -708,15 +757,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>55</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18">
@@ -727,11 +780,55 @@
         <f>(D18-D17)*(B18/100)*C18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
